--- a/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>1.396448238867676</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-4.55239847678236</v>
+        <v>-4.552398476782349</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.02829156719436694</v>
@@ -649,7 +649,7 @@
         <v>0.01764104852940643</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.07659565714131271</v>
+        <v>-0.07659565714131253</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-8.927303388953954</v>
+        <v>-9.058884467786541</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.127910742613648</v>
+        <v>-4.388100503505258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.91239711378033</v>
+        <v>-4.677275667530889</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-10.47199754100538</v>
+        <v>-9.850795098364713</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1242265905356422</v>
+        <v>-0.1262324007007062</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.07153012789811829</v>
+        <v>-0.06176696443404207</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.05960372672103019</v>
+        <v>-0.05786827336628888</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1667804781791677</v>
+        <v>-0.1619040110317839</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.98853021854694</v>
+        <v>5.328230002011157</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.601653198813878</v>
+        <v>10.62912590479466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.477436973724711</v>
+        <v>7.67134146433258</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.471467777645197</v>
+        <v>1.44350261378724</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07558041622856805</v>
+        <v>0.07980224898909409</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1453047315606254</v>
+        <v>0.1661588140975841</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0976075756489648</v>
+        <v>0.09882328998741068</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.02648155508458247</v>
+        <v>0.0258163756472287</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>2.742223060478088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.739829953750005</v>
+        <v>-1.739829953750016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05418110108413496</v>
@@ -749,7 +749,7 @@
         <v>0.03545378240926578</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02643774868377621</v>
+        <v>-0.02643774868377637</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.496628184860173</v>
+        <v>-4.001443972458961</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.02701476384825</v>
+        <v>-1.471531738027904</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-3.523746685784451</v>
+        <v>-3.084684379375722</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.382804623214133</v>
+        <v>-7.647715866496005</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.05098606556912203</v>
+        <v>-0.05933576118913295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.01490596859523894</v>
+        <v>-0.02069404315274493</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04409779033129947</v>
+        <v>-0.03906995615755808</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1211255916078303</v>
+        <v>-0.1117468288008153</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.86300287644913</v>
+        <v>9.84143209540054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.04850785200753</v>
+        <v>12.55519667245196</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.422643441189681</v>
+        <v>9.166783257234178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.738773385926739</v>
+        <v>4.643686476999894</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1814465359742181</v>
+        <v>0.1592903623565309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2049195252338773</v>
+        <v>0.1949691246814921</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1144804820070578</v>
+        <v>0.1237113225553061</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.07536247756926082</v>
+        <v>0.07320873808415998</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-11.08136051082263</v>
+        <v>-12.1603528506635</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.773290465360716</v>
+        <v>-2.239165562293743</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.879110704246113</v>
+        <v>-4.95372343212086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.823280516025079</v>
+        <v>-6.544879824608417</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1441073655542128</v>
+        <v>-0.156698231679664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04053850954519753</v>
+        <v>-0.03384435547318759</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.05594452264243861</v>
+        <v>-0.05628555784879479</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.08636590130642993</v>
+        <v>-0.09723560683738798</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.51109670987507</v>
+        <v>4.192422753668506</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>10.54119082850419</v>
+        <v>11.6247421307681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.051164435799162</v>
+        <v>7.353342050207634</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.449203107288277</v>
+        <v>8.437099960837136</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.06178226816371409</v>
+        <v>0.05791999967431805</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1601153539317398</v>
+        <v>0.1733370957179196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08294497541099838</v>
+        <v>0.08672279578473396</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1529794824545246</v>
+        <v>0.1353091636877712</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>3.728825841477501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.412378411649828</v>
+        <v>-1.412378411649806</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02337042385666341</v>
@@ -949,7 +949,7 @@
         <v>0.0453954999260948</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.02132357588647157</v>
+        <v>-0.02132357588647124</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.631515229353006</v>
+        <v>-2.84098559216708</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>5.212223534914761</v>
+        <v>5.894540900971085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1802693438436327</v>
+        <v>0.5387949689306542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.016552410568169</v>
+        <v>-6.047254944645167</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.03581709175687665</v>
+        <v>-0.0379389065508635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07398567563238273</v>
+        <v>0.08001443746306618</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.002221904659944924</v>
+        <v>0.006370171394119857</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08696270177208396</v>
+        <v>-0.08679769934205496</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.497295459748647</v>
+        <v>5.731078042957595</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.36785141987514</v>
+        <v>13.67259935608175</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.903671378473272</v>
+        <v>6.979578512108526</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.665705560107229</v>
+        <v>2.211147985391019</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07739558824674103</v>
+        <v>0.08057937196330361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1973834471984135</v>
+        <v>0.2007352765911899</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.08544438761026583</v>
+        <v>0.0873552573524834</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.0420346927993936</v>
+        <v>0.03461111164914112</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>3.818039123130867</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.446248458503131</v>
+        <v>2.446248458503142</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.107389688174065</v>
@@ -1049,7 +1049,7 @@
         <v>0.04575454697462426</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.0350390702161746</v>
+        <v>0.03503907021617476</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.32128774333617</v>
+        <v>1.519822316587164</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.7010306002780966</v>
+        <v>-1.345249172337791</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2375423331754437</v>
+        <v>0.1659361631198057</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.976101089047851</v>
+        <v>-3.125385323487659</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.031487963341509</v>
+        <v>0.01926321860312488</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.009337140615188621</v>
+        <v>-0.0175049102036668</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.002466093583635519</v>
+        <v>0.00178221597397261</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.04111841892559331</v>
+        <v>-0.04276608320394348</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.15427454404445</v>
+        <v>13.47991392198078</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.324542057364997</v>
+        <v>9.571298839471535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.184106675661457</v>
+        <v>7.686903570608576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.136748684237988</v>
+        <v>7.437697928166455</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2107848241132788</v>
+        <v>0.1960816546231887</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1359151157008687</v>
+        <v>0.1381998278161905</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1020921475733831</v>
+        <v>0.09397145245532734</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.1242118125968982</v>
+        <v>0.1149883924325047</v>
       </c>
     </row>
     <row r="19">
@@ -1149,7 +1149,7 @@
         <v>0.07006267286647842</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.362130464440167</v>
+        <v>0.3621304644401668</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>3.956105803138755</v>
+        <v>3.761059076217523</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>5.089934987486747</v>
+        <v>5.70072897560504</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1421768478268528</v>
+        <v>0.9969862472459153</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6.641347214613298</v>
+        <v>5.75495969192006</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.06151182298220773</v>
+        <v>0.05707548471252704</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07679381444351772</v>
+        <v>0.09147361066455151</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.001711893777477626</v>
+        <v>0.01200602278938533</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1130332482821803</v>
+        <v>0.1014868103896185</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>16.17331269031786</v>
+        <v>15.88492025463446</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>17.7725946030817</v>
+        <v>18.80097762432736</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.00702580311451</v>
+        <v>10.86179855254885</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>28.87418371018108</v>
+        <v>28.5868694078198</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2971548679735215</v>
+        <v>0.2863719576763651</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3128220205742664</v>
+        <v>0.3427726189198557</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.146896893663661</v>
+        <v>0.1475696200919722</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7641308072413905</v>
+        <v>0.7515604975251359</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>2.895568821343064</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1.088500927719427</v>
+        <v>1.088500927719416</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02653141860950116</v>
@@ -1249,7 +1249,7 @@
         <v>0.03535830602699168</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.01693927844349105</v>
+        <v>0.01693927844349088</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.4248793146636602</v>
+        <v>-0.3931562749041055</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.123810169787118</v>
+        <v>4.146374817473914</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.16899278160871</v>
+        <v>1.031124574296064</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.057109376669939</v>
+        <v>-1.342740880580872</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.005865369161580469</v>
+        <v>-0.005284120918245989</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05869590456386813</v>
+        <v>0.05884629794549478</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01414349732265913</v>
+        <v>0.01246056688689337</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.0160304151140671</v>
+        <v>-0.02077936191781963</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.93229266787524</v>
+        <v>4.190995211676145</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.704642370535041</v>
+        <v>8.484398112057443</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.824461615070152</v>
+        <v>4.794247854091601</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.856880488271943</v>
+        <v>3.352333347774762</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.05708940153434582</v>
+        <v>0.06066052728275104</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.128706062005297</v>
+        <v>0.1257055512939288</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05945252480559229</v>
+        <v>0.05905457320859552</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.06153414419218205</v>
+        <v>0.05365949333273019</v>
       </c>
     </row>
     <row r="25">
